--- a/Comments map ENG.xlsx
+++ b/Comments map ENG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uibkacat-my.sharepoint.com/personal/silja_baumann_student_uibk_ac_at/Documents/1 Master/1 Masterarbeit/15 Minutes City/GIT/15-minutes-innsbruck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_AD4DB114E441178AC67DF4E22ED5D03A683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{372599D4-08E6-4C55-8250-422E81A9ADE6}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="11_AD4DB114E441178AC67DF4E22ED5D03A683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9961C259-7BD5-454F-9A1B-E5AE0B310A76}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="6300" windowWidth="14715" windowHeight="3810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2820" windowWidth="22080" windowHeight="5715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>In welchem Innsbrucker Stadtteil leben Sie?</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fewer cars would be nice (73, pos. 2) </t>
+  </si>
+  <si>
+    <t>Right in Mühlau, not down on Haller Straße. (618, pos. 1)</t>
+  </si>
+  <si>
+    <t>Saggen (554, Pos. 1)</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -587,6 +593,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1150,7 +1159,9 @@
       <c r="F6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1">
@@ -1192,7 +1203,9 @@
       <c r="F8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
